--- a/kho/duong-ranh.xlsx
+++ b/kho/duong-ranh.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\strongway_dungcu\kho\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\strongway_dungcu\kho\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="29">
   <si>
     <t>Công Ty TNHH Công Nghiệp Strong Way Việt Nam</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>BẢNG LIỆT KÊ DỤNG CỤ DƯỠNG RÃNH</t>
+  </si>
+  <si>
+    <t>ĐẾN TRANG SẢN PHẨM</t>
   </si>
 </sst>
 </file>
@@ -324,7 +327,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -391,7 +394,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -406,6 +408,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -820,8 +828,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table17" displayName="Table17" ref="A4:F34" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowCellStyle="Heading 2">
   <autoFilter ref="A4:F34"/>
-  <sortState ref="A5:F123">
-    <sortCondition ref="D4:D123"/>
+  <sortState ref="A5:F34">
+    <sortCondition ref="D4:D34"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" name="TÊN DỤNG CỤ" dataDxfId="11" totalsRowDxfId="10"/>
@@ -1100,8 +1108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1118,32 +1126,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
       <c r="H3"/>
     </row>
     <row r="4" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.4">
@@ -1192,11 +1200,11 @@
       <c r="C6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
+      <c r="D6" s="10">
+        <v>6.7619999999999996</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="24"/>
       <c r="H6"/>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
@@ -1210,25 +1218,25 @@
         <v>8</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="H7"/>
     </row>
     <row r="8" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="13"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="8">
         <v>4</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
+      <c r="D8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
       <c r="H8"/>
     </row>
     <row r="9" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
@@ -1255,14 +1263,14 @@
         <v>8</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="H10"/>
     </row>
     <row r="11" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="7"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="8">
         <v>7</v>
       </c>
@@ -1270,24 +1278,24 @@
         <v>8</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="10"/>
+        <v>25</v>
+      </c>
+      <c r="E11" s="17"/>
       <c r="F11" s="10"/>
       <c r="H11"/>
     </row>
     <row r="12" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="11"/>
+      <c r="A12" s="7"/>
       <c r="B12" s="8">
         <v>8</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="16"/>
+      <c r="D12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="H12"/>
     </row>
@@ -1300,14 +1308,14 @@
         <v>8</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="24"/>
+        <v>12</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
       <c r="H13" s="18"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="8">
         <v>10</v>
       </c>
@@ -1315,7 +1323,7 @@
         <v>8</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
@@ -1329,10 +1337,10 @@
         <v>8</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
+        <v>14</v>
+      </c>
+      <c r="E15" s="17"/>
+      <c r="F15" s="24"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
@@ -1343,13 +1351,13 @@
         <v>8</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="13"/>
       <c r="B17" s="8">
         <v>13</v>
       </c>
@@ -1357,13 +1365,13 @@
         <v>8</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+    </row>
+    <row r="18" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="13"/>
       <c r="B18" s="8">
         <v>14</v>
       </c>
@@ -1371,12 +1379,15 @@
         <v>8</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="H18" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="8">
         <v>15</v>
@@ -1385,12 +1396,12 @@
         <v>8</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="8">
         <v>16</v>
@@ -1399,12 +1410,12 @@
         <v>8</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="8">
         <v>17</v>
@@ -1413,12 +1424,12 @@
         <v>8</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
       <c r="B22" s="8">
         <v>18</v>
@@ -1427,13 +1438,13 @@
         <v>8</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="20"/>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="21"/>
       <c r="B23" s="8">
         <v>19</v>
       </c>
@@ -1441,13 +1452,13 @@
         <v>8</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="21"/>
+        <v>15</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="20"/>
       <c r="B24" s="8">
         <v>20</v>
       </c>
@@ -1455,13 +1466,13 @@
         <v>8</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="13"/>
       <c r="B25" s="8">
         <v>21</v>
       </c>
@@ -1471,10 +1482,10 @@
       <c r="D25" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
       <c r="B26" s="8">
         <v>22</v>
@@ -1483,12 +1494,12 @@
         <v>8</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="13"/>
       <c r="B27" s="8">
         <v>23</v>
@@ -1496,14 +1507,14 @@
       <c r="C27" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="19" t="s">
-        <v>14</v>
+      <c r="D27" s="32" t="s">
+        <v>10</v>
       </c>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="13"/>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="7"/>
       <c r="B28" s="8">
         <v>24</v>
       </c>
@@ -1511,13 +1522,13 @@
         <v>8</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="13"/>
+        <v>18</v>
+      </c>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="7"/>
       <c r="B29" s="8">
         <v>25</v>
       </c>
@@ -1525,26 +1536,26 @@
         <v>8</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="22"/>
+        <v>13</v>
+      </c>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="11"/>
       <c r="B30" s="8">
         <v>26</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30" s="10"/>
+      <c r="D30" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="16"/>
       <c r="F30" s="10"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
       <c r="B31" s="8">
         <v>27</v>
@@ -1553,13 +1564,13 @@
         <v>8</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="23"/>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="7"/>
       <c r="B32" s="8">
         <v>28</v>
       </c>
@@ -1567,45 +1578,45 @@
         <v>8</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E32" s="17"/>
+        <v>20</v>
+      </c>
+      <c r="E32" s="10"/>
       <c r="F32" s="10"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="7"/>
+      <c r="A33" s="22"/>
       <c r="B33" s="8">
         <v>29</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="10">
-        <v>6.7619999999999996</v>
-      </c>
-      <c r="E33" s="17"/>
-      <c r="F33" s="24"/>
+      <c r="D33" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="26"/>
-      <c r="B34" s="27">
+      <c r="A34" s="31"/>
+      <c r="B34" s="26">
         <v>30</v>
       </c>
-      <c r="C34" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
+      <c r="C34" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F3"/>
   </mergeCells>
-  <dataValidations count="6">
+  <dataValidations xWindow="339" yWindow="553" count="6">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Unit Price in this column under this heading" sqref="D5"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Quantity in this column under this heading" sqref="E5:E7 C5:C34"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Description in this column under this heading" sqref="B5:B34"/>
@@ -1613,10 +1624,13 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Modify Company Name in this cell. Enter company address, phone, fax,  email &amp; website in cells B2 to G3. Enter Billing details in cells B4 to G7" sqref="A1"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter company Street Address in this cell" sqref="A2"/>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="H18" r:id="rId1" tooltip="Chuyển đến trang"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>